--- a/data-raw/data-tidy/tech-yearbook/part08-output/03-teckmarket-pull/funds-2014.xlsx
+++ b/data-raw/data-tidy/tech-yearbook/part08-output/03-teckmarket-pull/funds-2014.xlsx
@@ -500,7 +500,7 @@
         <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>127.9108891171</v>
+        <v>1279108.891171</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
@@ -520,7 +520,7 @@
         <v>8</v>
       </c>
       <c r="D3" t="n">
-        <v>1234.7134305949</v>
+        <v>12347134.305949</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
@@ -540,7 +540,7 @@
         <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>357.3583293751</v>
+        <v>3573583.293751</v>
       </c>
       <c r="E4" t="s">
         <v>9</v>
@@ -560,7 +560,7 @@
         <v>8</v>
       </c>
       <c r="D5" t="n">
-        <v>123.8124816748</v>
+        <v>1238124.816748</v>
       </c>
       <c r="E5" t="s">
         <v>9</v>
@@ -580,7 +580,7 @@
         <v>8</v>
       </c>
       <c r="D6" t="n">
-        <v>560.7249346529</v>
+        <v>5607249.346529</v>
       </c>
       <c r="E6" t="s">
         <v>9</v>
@@ -600,7 +600,7 @@
         <v>8</v>
       </c>
       <c r="D7" t="n">
-        <v>115.0460657826</v>
+        <v>1150460.657826</v>
       </c>
       <c r="E7" t="s">
         <v>9</v>
@@ -620,7 +620,7 @@
         <v>8</v>
       </c>
       <c r="D8" t="n">
-        <v>125.8371593528</v>
+        <v>1258371.593528</v>
       </c>
       <c r="E8" t="s">
         <v>9</v>
@@ -640,7 +640,7 @@
         <v>8</v>
       </c>
       <c r="D9" t="n">
-        <v>64.9806131547</v>
+        <v>649806.131547</v>
       </c>
       <c r="E9" t="s">
         <v>9</v>
@@ -660,7 +660,7 @@
         <v>8</v>
       </c>
       <c r="D10" t="n">
-        <v>152.8309120916</v>
+        <v>1528309.120916</v>
       </c>
       <c r="E10" t="s">
         <v>9</v>
@@ -680,7 +680,7 @@
         <v>8</v>
       </c>
       <c r="D11" t="n">
-        <v>118.5519702775</v>
+        <v>1185519.702775</v>
       </c>
       <c r="E11" t="s">
         <v>9</v>
@@ -700,7 +700,7 @@
         <v>8</v>
       </c>
       <c r="D12" t="n">
-        <v>108.5741179506</v>
+        <v>1085741.179506</v>
       </c>
       <c r="E12" t="s">
         <v>9</v>
@@ -720,7 +720,7 @@
         <v>8</v>
       </c>
       <c r="D13" t="n">
-        <v>328.3726321465</v>
+        <v>3283726.321465</v>
       </c>
       <c r="E13" t="s">
         <v>9</v>
@@ -740,7 +740,7 @@
         <v>8</v>
       </c>
       <c r="D14" t="n">
-        <v>123.0541118186</v>
+        <v>1230541.118186</v>
       </c>
       <c r="E14" t="s">
         <v>9</v>
@@ -760,7 +760,7 @@
         <v>8</v>
       </c>
       <c r="D15" t="n">
-        <v>50.7986579232</v>
+        <v>507986.579232</v>
       </c>
       <c r="E15" t="s">
         <v>9</v>
@@ -780,7 +780,7 @@
         <v>8</v>
       </c>
       <c r="D16" t="n">
-        <v>700.1906399151</v>
+        <v>7001906.399151</v>
       </c>
       <c r="E16" t="s">
         <v>9</v>
@@ -800,7 +800,7 @@
         <v>8</v>
       </c>
       <c r="D17" t="n">
-        <v>74.5702341687</v>
+        <v>745702.341687</v>
       </c>
       <c r="E17" t="s">
         <v>9</v>
@@ -820,7 +820,7 @@
         <v>8</v>
       </c>
       <c r="D18" t="n">
-        <v>250.4925261135</v>
+        <v>2504925.261135</v>
       </c>
       <c r="E18" t="s">
         <v>9</v>
@@ -840,7 +840,7 @@
         <v>8</v>
       </c>
       <c r="D19" t="n">
-        <v>156.493331772</v>
+        <v>1564933.31772</v>
       </c>
       <c r="E19" t="s">
         <v>9</v>
@@ -860,7 +860,7 @@
         <v>8</v>
       </c>
       <c r="D20" t="n">
-        <v>28.5500535813</v>
+        <v>285500.535813</v>
       </c>
       <c r="E20" t="s">
         <v>9</v>
@@ -880,7 +880,7 @@
         <v>8</v>
       </c>
       <c r="D21" t="n">
-        <v>50.0927860893</v>
+        <v>500927.860893</v>
       </c>
       <c r="E21" t="s">
         <v>9</v>
@@ -900,7 +900,7 @@
         <v>8</v>
       </c>
       <c r="D22" t="n">
-        <v>8577.1789872326</v>
+        <v>85771789.872326</v>
       </c>
       <c r="E22" t="s">
         <v>9</v>
@@ -920,7 +920,7 @@
         <v>8</v>
       </c>
       <c r="D23" t="n">
-        <v>403.1552108442</v>
+        <v>4031552.108442</v>
       </c>
       <c r="E23" t="s">
         <v>9</v>
@@ -940,7 +940,7 @@
         <v>8</v>
       </c>
       <c r="D24" t="n">
-        <v>207.6794181775</v>
+        <v>2076794.181775</v>
       </c>
       <c r="E24" t="s">
         <v>9</v>
@@ -960,7 +960,7 @@
         <v>8</v>
       </c>
       <c r="D25" t="n">
-        <v>279.6771560382</v>
+        <v>2796771.560382</v>
       </c>
       <c r="E25" t="s">
         <v>9</v>
@@ -980,7 +980,7 @@
         <v>8</v>
       </c>
       <c r="D26" t="n">
-        <v>447.2395701704</v>
+        <v>4472395.701704</v>
       </c>
       <c r="E26" t="s">
         <v>9</v>
@@ -1000,7 +1000,7 @@
         <v>8</v>
       </c>
       <c r="D27" t="n">
-        <v>230.5204460113</v>
+        <v>2305204.460113</v>
       </c>
       <c r="E27" t="s">
         <v>9</v>
@@ -1020,7 +1020,7 @@
         <v>8</v>
       </c>
       <c r="D28" t="n">
-        <v>340.7686044352</v>
+        <v>3407686.044352</v>
       </c>
       <c r="E28" t="s">
         <v>9</v>
@@ -1040,7 +1040,7 @@
         <v>8</v>
       </c>
       <c r="D29" t="n">
-        <v>10.1985419975</v>
+        <v>101985.419975</v>
       </c>
       <c r="E29" t="s">
         <v>9</v>
@@ -1060,7 +1060,7 @@
         <v>8</v>
       </c>
       <c r="D30" t="n">
-        <v>101.0449269264</v>
+        <v>1010449.269264</v>
       </c>
       <c r="E30" t="s">
         <v>9</v>
@@ -1080,7 +1080,7 @@
         <v>8</v>
       </c>
       <c r="D31" t="n">
-        <v>97.7835444766</v>
+        <v>977835.444766</v>
       </c>
       <c r="E31" t="s">
         <v>9</v>
@@ -1100,7 +1100,7 @@
         <v>8</v>
       </c>
       <c r="D32" t="n">
-        <v>198.5478196677</v>
+        <v>1985478.196677</v>
       </c>
       <c r="E32" t="s">
         <v>9</v>
@@ -1120,7 +1120,7 @@
         <v>8</v>
       </c>
       <c r="D33" t="n">
-        <v>191.1584872597</v>
+        <v>1911584.872597</v>
       </c>
       <c r="E33" t="s">
         <v>9</v>
